--- a/2des/bcd/aula02/tabela-teste.xlsx
+++ b/2des/bcd/aula02/tabela-teste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\des\Documents\bruno-otavio\senai\2des\bcd\aula02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADC593B-B8DD-4071-A784-59E121BEC50D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD999B1A-1C69-4580-A712-4F5AB95DB91A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{F2DB7915-018E-4064-924F-07D41C3105E1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>Clientes</t>
   </si>
@@ -97,6 +97,90 @@
   </si>
   <si>
     <t>hora</t>
+  </si>
+  <si>
+    <t>Equipamentos</t>
+  </si>
+  <si>
+    <t>função</t>
+  </si>
+  <si>
+    <t>ultima-manutenção</t>
+  </si>
+  <si>
+    <t>supino</t>
+  </si>
+  <si>
+    <t>músculos superiores</t>
+  </si>
+  <si>
+    <t>esteira</t>
+  </si>
+  <si>
+    <t>aeróbico</t>
+  </si>
+  <si>
+    <t>quantidade</t>
+  </si>
+  <si>
+    <t>cadeira abdutora</t>
+  </si>
+  <si>
+    <t>músculos inferiores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bicicleta ergométrica </t>
+  </si>
+  <si>
+    <t>aeróbicos</t>
+  </si>
+  <si>
+    <t>leg Press</t>
+  </si>
+  <si>
+    <t>Funcionários</t>
+  </si>
+  <si>
+    <t>cargo</t>
+  </si>
+  <si>
+    <t>instrutor</t>
+  </si>
+  <si>
+    <t>Carlos Abutre</t>
+  </si>
+  <si>
+    <t>recepcionista</t>
+  </si>
+  <si>
+    <t>Maria Abulquerque</t>
+  </si>
+  <si>
+    <t>jardim</t>
+  </si>
+  <si>
+    <t>Ronaldo Pinheiros</t>
+  </si>
+  <si>
+    <t>Jorge Amaraldo</t>
+  </si>
+  <si>
+    <t>apt. 1</t>
+  </si>
+  <si>
+    <t>contabilidade</t>
+  </si>
+  <si>
+    <t>Tathiana Oliveira</t>
+  </si>
+  <si>
+    <t>Instrutores</t>
+  </si>
+  <si>
+    <t>funcionário-id</t>
+  </si>
+  <si>
+    <t>horário</t>
   </si>
 </sst>
 </file>
@@ -105,9 +189,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,16 +221,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -154,25 +258,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="1" fillId="3" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="1" fillId="3" borderId="0" xfId="4" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="20% - Ênfase1" xfId="3" builtinId="30"/>
+    <cellStyle name="40% - Ênfase3" xfId="4" builtinId="39"/>
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Título 2" xfId="2" builtinId="17"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -484,101 +613,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D304D67-FF10-4AFB-9A7D-93BC55AF91FE}">
-  <dimension ref="A1:Q8"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="N1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="4"/>
+      <c r="Q1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -603,73 +758,95 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="1">
+        <v>35655</v>
+      </c>
+      <c r="M3">
+        <v>2331010</v>
+      </c>
+      <c r="N3">
+        <v>99</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="U3" s="1">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="K3" s="3">
-        <v>90</v>
-      </c>
-      <c r="L3" s="1">
-        <v>45292</v>
-      </c>
-      <c r="N3" s="1">
-        <v>45293</v>
-      </c>
-      <c r="O3" s="6">
-        <v>0.5625</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B4" s="10">
+        <v>40096373822</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="11">
+        <v>37877</v>
+      </c>
+      <c r="E4" s="10">
+        <v>4335000</v>
+      </c>
+      <c r="F4" s="10">
+        <v>22</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="I4" s="10">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>40096373822</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="J4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="11">
+        <v>38027</v>
+      </c>
+      <c r="M4" s="10">
+        <v>3116020</v>
+      </c>
+      <c r="N4" s="10">
+        <v>18</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>2</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" s="10">
         <v>10</v>
       </c>
-      <c r="D4" s="1">
-        <v>37877</v>
-      </c>
-      <c r="E4">
-        <v>4335000</v>
-      </c>
-      <c r="F4">
-        <v>22</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3">
-        <v>225</v>
-      </c>
-      <c r="L4" s="1">
-        <v>45292</v>
-      </c>
-      <c r="N4" s="1">
-        <v>45293</v>
-      </c>
-      <c r="O4" s="6">
-        <v>0.61840277777777775</v>
-      </c>
-      <c r="P4">
-        <v>2</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U4" s="11">
+        <v>45086</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -694,89 +871,358 @@
       <c r="I5">
         <v>3</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="1">
+        <v>37152</v>
+      </c>
+      <c r="M5">
+        <v>5446000</v>
+      </c>
+      <c r="N5">
+        <v>101</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5">
+        <v>5</v>
+      </c>
+      <c r="U5" s="1">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I6" s="10">
+        <v>4</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="11">
+        <v>34901</v>
+      </c>
+      <c r="M6" s="10">
+        <v>5275015</v>
+      </c>
+      <c r="N6" s="10">
+        <v>87</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>4</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" s="10">
+        <v>5</v>
+      </c>
+      <c r="U6" s="11">
+        <v>45130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="1">
+        <v>37588</v>
+      </c>
+      <c r="M7">
+        <v>5512900</v>
+      </c>
+      <c r="N7">
+        <v>9</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7">
+        <v>3</v>
+      </c>
+      <c r="U7" s="1">
+        <v>45157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="I9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
         <v>2</v>
       </c>
-      <c r="K5" s="3">
+      <c r="C11" s="3">
         <v>90</v>
       </c>
-      <c r="L5" s="1">
+      <c r="D11" s="1">
+        <v>45292</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>2</v>
+      </c>
+      <c r="B12" s="10">
+        <v>1</v>
+      </c>
+      <c r="C12" s="12">
+        <v>225</v>
+      </c>
+      <c r="D12" s="11">
+        <v>45292</v>
+      </c>
+      <c r="I12" s="10">
+        <v>2</v>
+      </c>
+      <c r="J12" s="10">
+        <v>3</v>
+      </c>
+      <c r="K12" s="10">
+        <v>1</v>
+      </c>
+      <c r="L12" s="14">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>90</v>
+      </c>
+      <c r="D13" s="1">
         <v>45323</v>
       </c>
-      <c r="N5" s="1">
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>4</v>
+      </c>
+      <c r="B14" s="10">
+        <v>3</v>
+      </c>
+      <c r="C14" s="12">
+        <v>490</v>
+      </c>
+      <c r="D14" s="11">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>45293</v>
       </c>
-      <c r="O5" s="6">
+      <c r="B18" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>45293</v>
+      </c>
+      <c r="B19" s="13">
+        <v>0.61840277777777775</v>
+      </c>
+      <c r="C19" s="10">
+        <v>2</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45293</v>
+      </c>
+      <c r="B20" s="5">
         <v>0.27430555555555552</v>
       </c>
-      <c r="P5">
-        <v>3</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="K6" s="3">
-        <v>490</v>
-      </c>
-      <c r="L6" s="1">
-        <v>45292</v>
-      </c>
-      <c r="N6" s="1">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
         <v>45294</v>
       </c>
-      <c r="O6" s="6">
+      <c r="B21" s="13">
         <v>0.2590277777777778</v>
       </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="C21" s="10">
+        <v>1</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N7" s="1">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>45294</v>
       </c>
-      <c r="O7" s="6">
+      <c r="B22" s="5">
         <v>0.3611111111111111</v>
       </c>
-      <c r="P7">
+      <c r="C22">
         <v>2</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="D22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N8" s="1">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
         <v>45294</v>
       </c>
-      <c r="O8" s="6">
+      <c r="B23" s="13">
         <v>0.68125000000000002</v>
       </c>
-      <c r="P8">
-        <v>3</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="C23" s="10">
+        <v>3</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="N1:P1"/>
+  <mergeCells count="6">
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>